--- a/data/vuelos.xlsx
+++ b/data/vuelos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejandro.g.rivas_bl\Desktop\TRABAJO FIN MÁSTER\notebook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexg\Desktop\TFM\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95193EE4-4D54-4FE1-A1A6-2A686DBDC23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C279CD7-FDE4-4F48-8946-30512ABF9218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{53D6E2AA-9717-4604-B3D9-813BED622BAC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{53D6E2AA-9717-4604-B3D9-813BED622BAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897217DE-A261-47DE-84E4-35C620756597}">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="G66" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1510,6 +1510,42 @@
         <v>92308548</v>
       </c>
     </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B101">
+        <v>20458260</v>
+      </c>
+      <c r="C101">
+        <v>82681716</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B102">
+        <v>22262317</v>
+      </c>
+      <c r="C102">
+        <v>83021678</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B103">
+        <v>24320204</v>
+      </c>
+      <c r="C103">
+        <v>80067687</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
